--- a/60221338/account/account - 복사본.xlsx
+++ b/60221338/account/account - 복사본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lej66\git\assignment\60221338\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF33E485-F5F3-4119-847F-FC6DF8E95BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BFE5E-A282-499F-83D2-AFEE69FE0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7044" yWindow="744" windowWidth="14592" windowHeight="11208" xr2:uid="{B5276834-5098-43A2-9B2F-BEFF69934894}"/>
+    <workbookView xWindow="1680" yWindow="1296" windowWidth="14592" windowHeight="11208" xr2:uid="{B5276834-5098-43A2-9B2F-BEFF69934894}"/>
   </bookViews>
   <sheets>
     <sheet name="ac" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,40 +48,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>f29a448b780745bf2e10667f46c442b102e75e76a46a1fff969641866225ab56</t>
+  </si>
+  <si>
+    <t>에프</t>
+  </si>
+  <si>
     <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53d6316bd7b9044e6bb5deaa87fe8316c2fde3938b78f8448875b08e551ccc95</t>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>aaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61be55a8e2f6b4e172338bddf184d6dbee29c98853e0a0485ecee7f27b9af0b4</t>
   </si>
   <si>
     <t>에이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d6ccd34ad7af363159ed4bbe18c0e43c681f606877d9ffc96b62200720d7291</t>
   </si>
   <si>
     <t>제트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rrrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4209fcf0702262840e93f40abf4df012722838494df760ff04aa1ce529a86f16</t>
   </si>
   <si>
     <t>알</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -445,13 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F1595F-CEC3-4E9B-8891-85304046018C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="65.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -466,46 +478,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
